--- a/Documents/BOM_RelayBox.xlsx
+++ b/Documents/BOM_RelayBox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/Pneumatic Workstation/HPK Electronics/RelayBox/RelayControls-HPK/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/Pneumatic Workstation/HPK Electronics/RelayBox/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{516A84BF-3EE9-48E9-9927-3C0235AFB446}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{403C6A95-04E7-421E-ABBF-48442C34EE15}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2250" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16875" yWindow="6495" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,27 +75,12 @@
     <t>M&amp;G ELECTRONIC</t>
   </si>
   <si>
-    <t>https://www.mgelectronic.rs/uti%C4%8Dnica-banana-4mm-4a-crna</t>
-  </si>
-  <si>
-    <t>https://www.mgelectronic.rs/uti%C4%8Dnica-banana-4mm-4a-plava</t>
-  </si>
-  <si>
-    <t>https://www.mgelectronic.rs/uti%C4%8Dnica-banana-4mm-4a-crvena</t>
-  </si>
-  <si>
     <t>BANANICA M. CRNA</t>
   </si>
   <si>
-    <t>https://www.mgelectronic.rs/utika%C4%8D-banana-4-mm-10a-crni</t>
-  </si>
-  <si>
     <t>BANANICA M. CRVENA</t>
   </si>
   <si>
-    <t>https://www.mgelectronic.rs/utika%C4%8D-banana-4-mm-10a-crveni</t>
-  </si>
-  <si>
     <t>SIMPLE:</t>
   </si>
   <si>
@@ -139,6 +124,21 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/cree-inc/C5SMF-GJF-CV0Y0791/4793796</t>
+  </si>
+  <si>
+    <t>https://www.mgelectronic.rs/1-3949</t>
+  </si>
+  <si>
+    <t>https://www.mgelectronic.rs/uti%C4%8Dnica-banana-4mm-25a-crvena</t>
+  </si>
+  <si>
+    <t>https://www.mgelectronic.rs/uti%C4%8Dnica-banana-4mm-25a-crna</t>
+  </si>
+  <si>
+    <t>https://www.mgelectronic.rs/utika%C4%8D-banana-4-mm-16a-crni</t>
+  </si>
+  <si>
+    <t>https://www.mgelectronic.rs/utika%C4%8D-banana-4-mm-16a-crveni</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -319,12 +319,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +412,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,7 +699,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,13 +779,13 @@
         <v>250</v>
       </c>
       <c r="C3" s="18">
-        <v>122.5</v>
+        <v>245.14</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -781,13 +810,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="18">
-        <v>13.78</v>
+        <v>27.58</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -812,13 +841,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="18">
-        <v>13.78</v>
+        <v>27.58</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -837,19 +866,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6">
         <v>100</v>
       </c>
       <c r="C6" s="18">
-        <v>24.5</v>
+        <v>81.709999999999994</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -868,19 +897,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>100</v>
       </c>
       <c r="C7" s="18">
-        <v>24.5</v>
+        <v>81.709999999999994</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -899,7 +928,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -911,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -933,7 +962,7 @@
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -953,7 +982,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
@@ -965,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -984,7 +1013,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6">
         <v>100</v>
@@ -996,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1015,7 +1044,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6">
         <v>100</v>
@@ -1027,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1046,7 +1075,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6">
         <v>10</v>
@@ -1058,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1077,7 +1106,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6">
         <v>10</v>
@@ -1089,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1108,7 +1137,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6">
         <v>10</v>
@@ -1120,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1150,13 +1179,13 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
@@ -1171,13 +1200,13 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="19"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
@@ -1192,13 +1221,13 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
@@ -1207,7 +1236,7 @@
       </c>
       <c r="C19" s="24">
         <f>C2+C3+C4+C5+C6+C7+C8+C10+C11+C12+C13+C14+C15</f>
-        <v>236</v>
+        <v>500.65999999999997</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="19"/>
@@ -1218,13 +1247,13 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -1239,13 +1268,13 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="19"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -1260,13 +1289,13 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="M21" s="25"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
@@ -1281,13 +1310,13 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="19"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
@@ -1302,13 +1331,13 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="19"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
@@ -1323,13 +1352,13 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="19"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
@@ -1344,13 +1373,13 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="M25" s="25"/>
       <c r="N25" s="19"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -1365,13 +1394,13 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="M26" s="25"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -1386,13 +1415,13 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="M27" s="25"/>
       <c r="N27" s="19"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
@@ -1407,13 +1436,13 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="M28" s="25"/>
       <c r="N28" s="19"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -1428,13 +1457,13 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="M29" s="25"/>
       <c r="N29" s="19"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
@@ -1449,13 +1478,13 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
@@ -1470,13 +1499,13 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="19"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -1491,13 +1520,13 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="M32" s="25"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
@@ -1512,13 +1541,13 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="M33" s="25"/>
       <c r="N33" s="19"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
@@ -1533,13 +1562,13 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="M34" s="25"/>
       <c r="N34" s="19"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
@@ -1554,13 +1583,13 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="M35" s="25"/>
       <c r="N35" s="19"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
@@ -1575,13 +1604,13 @@
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="M36" s="25"/>
       <c r="N36" s="19"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
@@ -1596,13 +1625,13 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="M37" s="25"/>
       <c r="N37" s="19"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
@@ -1617,13 +1646,13 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="19"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -1638,13 +1667,13 @@
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="M39" s="25"/>
       <c r="N39" s="19"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
@@ -1659,13 +1688,13 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="M40" s="25"/>
       <c r="N40" s="19"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
@@ -1680,13 +1709,13 @@
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="M41" s="25"/>
       <c r="N41" s="19"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
@@ -1701,13 +1730,13 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="M42" s="25"/>
       <c r="N42" s="19"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
@@ -1722,13 +1751,13 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="M43" s="25"/>
       <c r="N43" s="19"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
@@ -1743,13 +1772,13 @@
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="M44" s="25"/>
       <c r="N44" s="19"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
@@ -1764,8 +1793,13 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="M45" s="25"/>
       <c r="N45" s="19"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -1780,8 +1814,13 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="M46" s="25"/>
       <c r="N46" s="19"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -1797,7 +1836,7 @@
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="N47" s="26"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>

--- a/Documents/BOM_RelayBox.xlsx
+++ b/Documents/BOM_RelayBox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/Pneumatic Workstation/HPK Electronics/RelayBox/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{403C6A95-04E7-421E-ABBF-48442C34EE15}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE7728C3-B57B-4056-9413-21D4FE45C86A}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="6495" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="5295" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>PART</t>
   </si>
@@ -90,12 +90,6 @@
     <t>https://www.digikey.com/en/products/detail/central-semiconductor-corp/CMDZ5239B-TR-PBFREE/5212637</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/renesas-electronics-america-inc/NP36P06SLG-E1-AY/2764260</t>
-  </si>
-  <si>
-    <t>P-MOS</t>
-  </si>
-  <si>
     <t>CAP 1uF 1206</t>
   </si>
   <si>
@@ -139,6 +133,24 @@
   </si>
   <si>
     <t>https://www.mgelectronic.rs/utika%C4%8D-banana-4-mm-16a-crveni</t>
+  </si>
+  <si>
+    <t>BANANICA M. PLAVA</t>
+  </si>
+  <si>
+    <t>https://www.mgelectronic.rs/utika%C4%8D-banana-4-mm-16a-plavi</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/on-semiconductor/ATP106-TL-H/2165409?s=N4IgTCBcDaIIIBUAKBGADANhAXQL5A</t>
+  </si>
+  <si>
+    <t>ATP106-TL-H</t>
+  </si>
+  <si>
+    <t>ASMDC300F/24-2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/littelfuse-inc/ASMDC300F-24-2/6623875?s=N4IgTCBcDaIIIGUCyARAwgZgAxYGIHowAWEAXQF8g</t>
   </si>
 </sst>
 </file>
@@ -696,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -815,8 +827,8 @@
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -846,8 +858,8 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -878,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -897,13 +909,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C7" s="18">
-        <v>81.709999999999994</v>
+        <v>42.48</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>12</v>
@@ -928,19 +940,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C8" s="18">
-        <v>11.43</v>
+        <v>42.48</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -958,43 +970,51 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="A9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18">
+        <v>6.82</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>16</v>
+      <c r="A10" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="6">
         <v>10</v>
       </c>
       <c r="C10" s="18">
-        <v>2.89</v>
+        <v>7.4</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1012,51 +1032,43 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6">
-        <v>100</v>
-      </c>
-      <c r="C11" s="18">
-        <v>4.72</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C12" s="18">
-        <v>1.41</v>
+        <v>2.89</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1074,20 +1086,20 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>25</v>
+      <c r="A13" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C13" s="18">
-        <v>0.24</v>
+        <v>4.72</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1105,20 +1117,20 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>26</v>
+      <c r="A14" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B14" s="6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C14" s="18">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1137,19 +1149,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6">
         <v>10</v>
       </c>
       <c r="C15" s="18">
-        <v>1.53</v>
+        <v>0.24</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>29</v>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1167,46 +1179,66 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
+      <c r="A16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
+      <c r="A17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1.53</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
@@ -1231,13 +1263,8 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
-      <c r="B19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="24">
-        <f>C2+C3+C4+C5+C6+C7+C8+C10+C11+C12+C13+C14+C15</f>
-        <v>500.65999999999997</v>
-      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -1278,8 +1305,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="24">
+        <f>C2+C3+C4+C5+C6+C8+C10+C12+C13+C14+C15+C16+C17</f>
+        <v>457.4</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -1407,7 +1439,7 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
@@ -1449,7 +1481,7 @@
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -1655,7 +1687,7 @@
       <c r="S38" s="19"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -1697,7 +1729,7 @@
       <c r="S40" s="19"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -1781,10 +1813,10 @@
       <c r="S44" s="19"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -1795,17 +1827,17 @@
       <c r="L45" s="19"/>
       <c r="M45" s="25"/>
       <c r="N45" s="19"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -1816,17 +1848,17 @@
       <c r="L46" s="19"/>
       <c r="M46" s="25"/>
       <c r="N46" s="19"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -1835,65 +1867,113 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="26"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="26"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{79BF06FD-3A9A-4BAC-BA66-4D74066D1F9D}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{D1BE9089-1632-438A-A67B-0CCED1C9E07B}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{8E89F3D7-37B0-4E3C-97A8-2642A1CB9376}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{7FB64CFB-AC61-445D-A145-EE93FA372F52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>